--- a/data/trans_orig/P05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F90F37-EC9C-4516-A1DF-4681544C71A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03ACE54-4006-44DC-8F1E-02C6E9914196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86AE5F1B-CDBF-4D55-80CA-40E8E5847246}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B8164F-12FA-443B-AF82-C50FBC60C783}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="643">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,1909 +77,1897 @@
     <t>88,89%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF3EE2E-0ABB-44A2-BD33-774D2F891E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D4862A-7F6E-4353-955C-7A3AAC216BF7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2823,13 +2811,13 @@
         <v>10867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2838,13 +2826,13 @@
         <v>17350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2853,13 +2841,13 @@
         <v>28216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2903,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2927,13 +2915,13 @@
         <v>547182</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>590</v>
@@ -2948,7 +2936,7 @@
         <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>1116</v>
@@ -2957,13 +2945,13 @@
         <v>1165015</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2966,13 @@
         <v>75927</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -2993,13 +2981,13 @@
         <v>56038</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -3008,13 +2996,13 @@
         <v>131965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3017,13 @@
         <v>11160</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3044,13 +3032,13 @@
         <v>12820</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3059,13 +3047,13 @@
         <v>23980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3109,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3133,13 +3121,13 @@
         <v>466990</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>441</v>
@@ -3148,28 +3136,28 @@
         <v>451837</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>874</v>
       </c>
       <c r="N16" s="7">
-        <v>918828</v>
+        <v>918827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3172,13 @@
         <v>37557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3199,13 +3187,13 @@
         <v>50564</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -3214,13 +3202,13 @@
         <v>88121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3223,13 @@
         <v>10890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3250,13 +3238,13 @@
         <v>8205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3265,13 +3253,13 @@
         <v>19095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3301,7 @@
         <v>977</v>
       </c>
       <c r="N19" s="7">
-        <v>1026043</v>
+        <v>1026042</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3327,7 +3315,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3339,13 +3327,13 @@
         <v>328832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -3354,13 +3342,13 @@
         <v>356922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>686</v>
@@ -3369,13 +3357,13 @@
         <v>685754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3378,13 @@
         <v>44615</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3405,13 +3393,13 @@
         <v>29540</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>72</v>
@@ -3420,13 +3408,13 @@
         <v>74154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3429,13 @@
         <v>7968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3456,13 +3444,13 @@
         <v>13803</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3471,13 +3459,13 @@
         <v>21771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,7 +3521,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3545,13 +3533,13 @@
         <v>454416</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>591</v>
@@ -3560,13 +3548,13 @@
         <v>602849</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>1063</v>
@@ -3575,13 +3563,13 @@
         <v>1057266</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3584,13 @@
         <v>36723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3611,13 +3599,13 @@
         <v>59587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3626,13 +3614,13 @@
         <v>96310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3635,13 @@
         <v>7843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3662,13 +3650,13 @@
         <v>8053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3677,13 +3665,13 @@
         <v>15897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,28 +3739,28 @@
         <v>2896029</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>2926</v>
       </c>
       <c r="I28" s="7">
-        <v>2986631</v>
+        <v>2986630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>5766</v>
@@ -3781,13 +3769,13 @@
         <v>5882660</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3790,13 @@
         <v>289752</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>269</v>
@@ -3820,10 +3808,10 @@
         <v>27</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>553</v>
@@ -3832,13 +3820,13 @@
         <v>576747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3841,13 @@
         <v>58268</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -3868,13 +3856,13 @@
         <v>72642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -3883,13 +3871,13 @@
         <v>130909</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3904,7 @@
         <v>3266</v>
       </c>
       <c r="I31" s="7">
-        <v>3346268</v>
+        <v>3346267</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -3945,7 +3933,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3967,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D685517-F396-436B-8C33-C49CE882FD76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1ACC7E-6B67-4224-A6B1-8254B265C80B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,7 +3972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4091,13 +4079,13 @@
         <v>406703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>392</v>
@@ -4106,28 +4094,28 @@
         <v>400742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>791</v>
       </c>
       <c r="N4" s="7">
-        <v>807446</v>
+        <v>807445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4130,13 @@
         <v>34007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4157,13 +4145,13 @@
         <v>18535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -4172,13 +4160,13 @@
         <v>52542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>4862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4208,13 +4196,13 @@
         <v>7026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4223,13 +4211,13 @@
         <v>11888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4259,7 @@
         <v>856</v>
       </c>
       <c r="N7" s="7">
-        <v>871876</v>
+        <v>871875</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4297,13 +4285,13 @@
         <v>626504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>513</v>
@@ -4312,13 +4300,13 @@
         <v>550097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -4327,13 +4315,13 @@
         <v>1176601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4336,13 @@
         <v>40250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -4363,13 +4351,13 @@
         <v>44731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -4378,13 +4366,13 @@
         <v>84981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4387,13 @@
         <v>16553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4414,13 +4402,13 @@
         <v>11575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4429,13 +4417,13 @@
         <v>28127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4479,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4503,13 +4491,13 @@
         <v>600727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>599</v>
@@ -4518,13 +4506,13 @@
         <v>638440</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>1175</v>
@@ -4533,13 +4521,13 @@
         <v>1239167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4542,13 @@
         <v>55769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -4569,13 +4557,13 @@
         <v>49214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -4584,13 +4572,13 @@
         <v>104982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4593,13 @@
         <v>18612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4620,13 +4608,13 @@
         <v>13779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4635,13 +4623,13 @@
         <v>32391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4685,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4709,13 +4697,13 @@
         <v>549918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>480</v>
@@ -4724,13 +4712,13 @@
         <v>550266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>973</v>
@@ -4739,13 +4727,13 @@
         <v>1100184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4748,13 @@
         <v>47449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4775,13 +4763,13 @@
         <v>47739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4790,13 +4778,13 @@
         <v>95187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4799,13 @@
         <v>16226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -4826,13 +4814,13 @@
         <v>9928</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4841,13 +4829,13 @@
         <v>26154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4891,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4915,13 +4903,13 @@
         <v>402074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -4930,13 +4918,13 @@
         <v>400686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -4945,13 +4933,13 @@
         <v>802760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4954,13 @@
         <v>22030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4981,13 +4969,13 @@
         <v>32824</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -4996,13 +4984,13 @@
         <v>54854</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5005,13 @@
         <v>5325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5032,13 +5020,13 @@
         <v>10109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -5047,13 +5035,13 @@
         <v>15435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5097,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5121,13 +5109,13 @@
         <v>514774</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>635</v>
@@ -5136,13 +5124,13 @@
         <v>679602</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>1101</v>
@@ -5151,13 +5139,13 @@
         <v>1194376</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5160,13 @@
         <v>29390</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5187,13 +5175,13 @@
         <v>49653</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5202,13 +5190,13 @@
         <v>79043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5211,13 @@
         <v>8245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -5238,13 +5226,13 @@
         <v>8469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -5253,13 +5241,13 @@
         <v>16714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5315,13 @@
         <v>3100699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>2982</v>
@@ -5342,13 +5330,13 @@
         <v>3219833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M28" s="7">
         <v>5895</v>
@@ -5357,13 +5345,13 @@
         <v>6320533</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5366,13 @@
         <v>228895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="H29" s="7">
         <v>227</v>
@@ -5393,13 +5381,13 @@
         <v>242696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>57</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -5408,13 +5396,13 @@
         <v>471591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5417,13 @@
         <v>69822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5444,13 +5432,13 @@
         <v>60887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -5459,13 +5447,13 @@
         <v>130710</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5509,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5543,7 +5531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F7B17D-1D8C-4CBF-8361-A54056324314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D3100-6313-4DDF-955E-9ED8551D320B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5560,7 +5548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5667,13 +5655,13 @@
         <v>377193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>355</v>
@@ -5682,13 +5670,13 @@
         <v>346347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>711</v>
@@ -5697,13 +5685,13 @@
         <v>723540</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,10 +5709,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -5733,13 +5721,13 @@
         <v>36556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -5748,13 +5736,13 @@
         <v>69745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5757,13 @@
         <v>6317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5784,13 +5772,13 @@
         <v>9888</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5799,13 +5787,13 @@
         <v>16205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5861,13 @@
         <v>511620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>512</v>
@@ -5888,13 +5876,13 @@
         <v>498385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>1005</v>
@@ -5903,13 +5891,13 @@
         <v>1010005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5912,13 @@
         <v>54035</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5939,13 +5927,13 @@
         <v>41905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -5954,13 +5942,13 @@
         <v>95941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>406</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5963,13 @@
         <v>18823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5990,13 +5978,13 @@
         <v>21319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -6005,13 +5993,13 @@
         <v>40143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6055,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6079,13 +6067,13 @@
         <v>603621</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -6094,13 +6082,13 @@
         <v>592750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>1173</v>
@@ -6109,13 +6097,13 @@
         <v>1196371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6118,13 @@
         <v>50452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6145,13 +6133,13 @@
         <v>45942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6160,13 +6148,13 @@
         <v>96394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6169,13 @@
         <v>11092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6196,13 +6184,13 @@
         <v>16803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6211,13 +6199,13 @@
         <v>27896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6261,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6285,13 +6273,13 @@
         <v>558793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>532</v>
@@ -6300,13 +6288,13 @@
         <v>573781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>1038</v>
@@ -6315,13 +6303,13 @@
         <v>1132574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6324,13 @@
         <v>54986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -6351,13 +6339,13 @@
         <v>47193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -6366,13 +6354,13 @@
         <v>102179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6375,13 @@
         <v>21936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6402,13 +6390,13 @@
         <v>19967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>449</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -6417,13 +6405,13 @@
         <v>41903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>452</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6467,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6491,13 +6479,13 @@
         <v>420045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -6506,13 +6494,13 @@
         <v>428789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>747</v>
@@ -6521,13 +6509,13 @@
         <v>848834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>459</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6530,13 @@
         <v>36723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -6557,13 +6545,13 @@
         <v>46362</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>265</v>
+        <v>457</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -6572,13 +6560,13 @@
         <v>83086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6581,13 @@
         <v>17912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6608,13 +6596,13 @@
         <v>20529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6623,13 +6611,13 @@
         <v>38441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6673,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6697,13 +6685,13 @@
         <v>526716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>583</v>
@@ -6712,13 +6700,13 @@
         <v>692278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>1143</v>
@@ -6727,13 +6715,13 @@
         <v>1218994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6736,13 @@
         <v>42040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6763,13 +6751,13 @@
         <v>52955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -6778,13 +6766,13 @@
         <v>94996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6787,13 @@
         <v>19067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6814,13 +6802,13 @@
         <v>19344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6829,13 +6817,13 @@
         <v>38410</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6891,13 @@
         <v>2997987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>499</v>
+        <v>338</v>
       </c>
       <c r="H28" s="7">
         <v>2954</v>
@@ -6918,13 +6906,13 @@
         <v>3132330</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>502</v>
+        <v>338</v>
       </c>
       <c r="M28" s="7">
         <v>5817</v>
@@ -6933,13 +6921,13 @@
         <v>6130317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6942,13 @@
         <v>271425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H29" s="7">
         <v>253</v>
@@ -6969,13 +6957,13 @@
         <v>270913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -6984,13 +6972,13 @@
         <v>542339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +6993,13 @@
         <v>95148</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H30" s="7">
         <v>101</v>
@@ -7020,13 +7008,13 @@
         <v>107850</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>67</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -7035,13 +7023,13 @@
         <v>202997</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,7 +7085,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7119,7 +7107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C78EC5-05B0-4C1D-97DA-0FA758212537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEE186-5893-442D-9013-5EB07550E0D2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7136,7 +7124,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7243,13 +7231,13 @@
         <v>356485</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
@@ -7258,13 +7246,13 @@
         <v>330782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>513</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M4" s="7">
         <v>354</v>
@@ -7273,13 +7261,13 @@
         <v>687266</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>522</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7282,13 @@
         <v>15600</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7309,13 +7297,13 @@
         <v>14599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>419</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7324,13 +7312,13 @@
         <v>30200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>527</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7333,13 @@
         <v>5594</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7360,13 +7348,13 @@
         <v>7814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -7375,13 +7363,13 @@
         <v>13408</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>525</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7437,13 @@
         <v>405995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -7464,13 +7452,13 @@
         <v>478788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M8" s="7">
         <v>726</v>
@@ -7479,13 +7467,13 @@
         <v>884784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,10 +7491,10 @@
         <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -7515,13 +7503,13 @@
         <v>20427</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -7530,13 +7518,13 @@
         <v>34733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7539,13 @@
         <v>8095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7566,13 +7554,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7581,13 +7569,13 @@
         <v>8095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7631,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7655,13 +7643,13 @@
         <v>526251</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H12" s="7">
         <v>798</v>
@@ -7670,13 +7658,13 @@
         <v>573922</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>1313</v>
@@ -7685,13 +7673,13 @@
         <v>1100173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7694,13 @@
         <v>21251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>557</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7721,13 +7709,13 @@
         <v>23821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>564</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -7736,13 +7724,13 @@
         <v>45072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>562</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7745,13 @@
         <v>8381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>568</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>564</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>562</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -7772,13 +7760,13 @@
         <v>7859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>564</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -7787,13 +7775,13 @@
         <v>16240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>570</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,7 +7837,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7861,13 +7849,13 @@
         <v>684840</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>1080</v>
@@ -7876,13 +7864,13 @@
         <v>705253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1704</v>
@@ -7891,13 +7879,13 @@
         <v>1390093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7900,13 @@
         <v>27818</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7927,13 +7915,13 @@
         <v>30611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7942,13 +7930,13 @@
         <v>58429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7951,13 @@
         <v>10296</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -7978,13 +7966,13 @@
         <v>9346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>581</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>589</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -7993,13 +7981,13 @@
         <v>19643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>582</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,7 +8043,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8067,13 +8055,13 @@
         <v>566384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
@@ -8082,13 +8070,13 @@
         <v>568000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -8097,13 +8085,13 @@
         <v>1134384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8106,13 @@
         <v>21008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>600</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>487</v>
+        <v>594</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -8133,13 +8121,13 @@
         <v>17227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>597</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -8148,13 +8136,13 @@
         <v>38235</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8157,13 @@
         <v>9163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8184,13 +8172,13 @@
         <v>8293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>608</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -8199,13 +8187,13 @@
         <v>17456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,7 +8249,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8273,13 +8261,13 @@
         <v>667426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H24" s="7">
         <v>1628</v>
@@ -8288,13 +8276,13 @@
         <v>983011</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M24" s="7">
         <v>2613</v>
@@ -8303,13 +8291,13 @@
         <v>1650437</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8312,13 @@
         <v>23801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>621</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -8339,13 +8327,13 @@
         <v>30833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>623</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>615</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -8354,13 +8342,13 @@
         <v>54634</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8363,13 @@
         <v>6529</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8390,13 +8378,13 @@
         <v>8533</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>88</v>
+        <v>620</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8405,13 +8393,13 @@
         <v>15062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,13 +8467,13 @@
         <v>3207380</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H28" s="7">
         <v>5096</v>
@@ -8494,13 +8482,13 @@
         <v>3639756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M28" s="7">
         <v>8295</v>
@@ -8509,13 +8497,13 @@
         <v>6847135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8530,13 +8518,13 @@
         <v>123784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -8545,13 +8533,13 @@
         <v>137518</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -8560,13 +8548,13 @@
         <v>261302</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>638</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>642</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8569,13 @@
         <v>48058</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>449</v>
+        <v>615</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -8596,13 +8584,13 @@
         <v>41846</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>642</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -8611,13 +8599,13 @@
         <v>89904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>581</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>646</v>
+        <v>243</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>605</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8673,7 +8661,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03ACE54-4006-44DC-8F1E-02C6E9914196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE56FFCB-10FB-49B5-B66C-21226F427422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B8164F-12FA-443B-AF82-C50FBC60C783}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{219306A1-95B5-4005-994A-AB024C0B5E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="642">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,1897 +77,1894 @@
     <t>88,89%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>86,6%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D4862A-7F6E-4353-955C-7A3AAC216BF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6630A4-D627-459D-B7E2-E506248F7C80}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2921,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>590</v>
@@ -2930,13 +2927,13 @@
         <v>617833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1116</v>
@@ -2945,13 +2942,13 @@
         <v>1165015</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2963,13 @@
         <v>75927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -2981,13 +2978,13 @@
         <v>56038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -2996,13 +2993,13 @@
         <v>131965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3014,13 @@
         <v>11160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3032,13 +3029,13 @@
         <v>12820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3047,13 +3044,13 @@
         <v>23980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3118,13 @@
         <v>466990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>441</v>
@@ -3136,28 +3133,28 @@
         <v>451837</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>874</v>
       </c>
       <c r="N16" s="7">
-        <v>918827</v>
+        <v>918828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3169,13 @@
         <v>37557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3187,13 +3184,13 @@
         <v>50564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -3202,13 +3199,13 @@
         <v>88121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,10 +3223,10 @@
         <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3238,13 +3235,13 @@
         <v>8205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3253,13 +3250,13 @@
         <v>19095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3298,7 @@
         <v>977</v>
       </c>
       <c r="N19" s="7">
-        <v>1026042</v>
+        <v>1026043</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3327,13 +3324,13 @@
         <v>328832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -3342,13 +3339,13 @@
         <v>356922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>686</v>
@@ -3357,13 +3354,13 @@
         <v>685754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3375,13 @@
         <v>44615</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3393,13 +3390,13 @@
         <v>29540</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>72</v>
@@ -3408,13 +3405,13 @@
         <v>74154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3426,13 @@
         <v>7968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3444,13 +3441,13 @@
         <v>13803</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3459,13 +3456,13 @@
         <v>21771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3518,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3533,13 +3530,13 @@
         <v>454416</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>591</v>
@@ -3548,13 +3545,13 @@
         <v>602849</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>1063</v>
@@ -3563,13 +3560,13 @@
         <v>1057266</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3581,13 @@
         <v>36723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3599,13 +3596,13 @@
         <v>59587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3614,13 +3611,13 @@
         <v>96310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3632,13 @@
         <v>7843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3650,13 +3647,13 @@
         <v>8053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3665,13 +3662,13 @@
         <v>15897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3736,13 @@
         <v>2896029</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>2926</v>
@@ -3754,13 +3751,13 @@
         <v>2986630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>5766</v>
@@ -3769,13 +3766,13 @@
         <v>5882660</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3787,13 @@
         <v>289752</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>269</v>
@@ -3808,10 +3805,10 @@
         <v>27</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>553</v>
@@ -3820,13 +3817,13 @@
         <v>576747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3838,13 @@
         <v>58268</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -3856,13 +3853,13 @@
         <v>72642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -3871,13 +3868,13 @@
         <v>130909</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,7 +3930,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +3952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1ACC7E-6B67-4224-A6B1-8254B265C80B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE75949-A00D-435F-85F7-A61670612524}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3972,7 +3969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4079,13 +4076,13 @@
         <v>406703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>392</v>
@@ -4094,28 +4091,28 @@
         <v>400742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>791</v>
       </c>
       <c r="N4" s="7">
-        <v>807445</v>
+        <v>807446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4127,13 @@
         <v>34007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4145,10 +4142,10 @@
         <v>18535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>213</v>
@@ -4211,7 +4208,7 @@
         <v>11888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>223</v>
@@ -4259,7 +4256,7 @@
         <v>856</v>
       </c>
       <c r="N7" s="7">
-        <v>871875</v>
+        <v>871876</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4321,7 +4318,7 @@
         <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4333,13 @@
         <v>40250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -4351,13 +4348,13 @@
         <v>44731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -4366,13 +4363,13 @@
         <v>84981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4384,13 @@
         <v>16553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4402,13 +4399,13 @@
         <v>11575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4417,13 +4414,13 @@
         <v>28127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4488,13 @@
         <v>600727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>599</v>
@@ -4506,13 +4503,13 @@
         <v>638440</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>1175</v>
@@ -4521,13 +4518,13 @@
         <v>1239167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4539,10 @@
         <v>55769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>258</v>
@@ -4572,13 +4569,13 @@
         <v>104982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4590,13 @@
         <v>18612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4608,13 +4605,13 @@
         <v>13779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4623,13 +4620,13 @@
         <v>32391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4697,13 +4694,13 @@
         <v>549918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>480</v>
@@ -4712,13 +4709,13 @@
         <v>550266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>973</v>
@@ -4727,13 +4724,13 @@
         <v>1100184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4745,13 @@
         <v>47449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4763,13 +4760,13 @@
         <v>47739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4778,13 +4775,13 @@
         <v>95187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4796,13 @@
         <v>16226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -4814,13 +4811,13 @@
         <v>9928</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4829,13 +4826,13 @@
         <v>26154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4888,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4903,13 +4900,13 @@
         <v>402074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -4918,13 +4915,13 @@
         <v>400686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -4933,13 +4930,13 @@
         <v>802760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4951,13 @@
         <v>22030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4969,13 +4966,13 @@
         <v>32824</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -4984,13 +4981,13 @@
         <v>54854</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5002,13 @@
         <v>5325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5020,13 +5017,13 @@
         <v>10109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -5035,13 +5032,13 @@
         <v>15435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5094,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5109,13 +5106,13 @@
         <v>514774</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H24" s="7">
         <v>635</v>
@@ -5124,13 +5121,13 @@
         <v>679602</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>1101</v>
@@ -5139,13 +5136,13 @@
         <v>1194376</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5157,13 @@
         <v>29390</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5175,13 +5172,13 @@
         <v>49653</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5190,13 +5187,13 @@
         <v>79043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5208,13 @@
         <v>8245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -5226,13 +5223,13 @@
         <v>8469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -5241,13 +5238,13 @@
         <v>16714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5312,13 @@
         <v>3100699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>2982</v>
@@ -5330,13 +5327,13 @@
         <v>3219833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>5895</v>
@@ -5345,13 +5342,13 @@
         <v>6320533</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5363,13 @@
         <v>228895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>227</v>
@@ -5381,13 +5378,13 @@
         <v>242696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -5396,13 +5393,13 @@
         <v>471591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>348</v>
+        <v>55</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5414,13 @@
         <v>69822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5432,10 +5429,10 @@
         <v>60887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>147</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>356</v>
@@ -5450,10 +5447,10 @@
         <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5506,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5531,7 +5528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D3100-6313-4DDF-955E-9ED8551D320B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8E4FC3-EDFA-4FC5-B3DC-3144A7999D6F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5548,7 +5545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5655,7 +5652,7 @@
         <v>377193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>360</v>
@@ -5676,7 +5673,7 @@
         <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>711</v>
@@ -5685,13 +5682,13 @@
         <v>723540</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,10 +5706,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -5721,13 +5718,13 @@
         <v>36556</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -5736,13 +5733,13 @@
         <v>69745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5754,13 @@
         <v>6317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5772,13 +5769,13 @@
         <v>9888</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5787,13 +5784,13 @@
         <v>16205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5858,13 @@
         <v>511620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>512</v>
@@ -5876,13 +5873,13 @@
         <v>498385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>1005</v>
@@ -5891,13 +5888,13 @@
         <v>1010005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5909,13 @@
         <v>54035</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5927,13 +5924,13 @@
         <v>41905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -5945,10 +5942,10 @@
         <v>396</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5960,13 @@
         <v>18823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5978,13 +5975,13 @@
         <v>21319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5993,13 +5990,13 @@
         <v>40143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6064,13 @@
         <v>603621</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -6082,13 +6079,13 @@
         <v>592750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M12" s="7">
         <v>1173</v>
@@ -6097,13 +6094,13 @@
         <v>1196371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6115,13 @@
         <v>50452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6133,13 +6130,13 @@
         <v>45942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6148,13 +6145,13 @@
         <v>96394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6166,13 @@
         <v>11092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6184,13 +6181,13 @@
         <v>16803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6202,10 +6199,10 @@
         <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,7 +6258,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6273,13 +6270,13 @@
         <v>558793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>532</v>
@@ -6294,7 +6291,7 @@
         <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>1038</v>
@@ -6303,13 +6300,13 @@
         <v>1132574</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6321,13 @@
         <v>54986</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -6339,13 +6336,13 @@
         <v>47193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -6354,13 +6351,13 @@
         <v>102179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>439</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>440</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6372,13 @@
         <v>21936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6393,10 +6390,10 @@
         <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -6405,13 +6402,13 @@
         <v>41903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6464,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6479,10 +6476,10 @@
         <v>420045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>448</v>
@@ -6500,7 +6497,7 @@
         <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>747</v>
@@ -6509,10 +6506,10 @@
         <v>848834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>452</v>
@@ -6563,10 +6560,10 @@
         <v>459</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>460</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,10 +6578,10 @@
         <v>17912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>463</v>
@@ -6614,10 +6611,10 @@
         <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6670,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6685,13 +6682,13 @@
         <v>526716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>583</v>
@@ -6700,13 +6697,13 @@
         <v>692278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M24" s="7">
         <v>1143</v>
@@ -6715,13 +6712,13 @@
         <v>1218994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6733,13 @@
         <v>42040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6751,13 +6748,13 @@
         <v>52955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -6769,10 +6766,10 @@
         <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6784,13 @@
         <v>19067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>484</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6802,13 +6799,13 @@
         <v>19344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6897,7 +6894,7 @@
         <v>492</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>338</v>
+        <v>476</v>
       </c>
       <c r="H28" s="7">
         <v>2954</v>
@@ -6909,10 +6906,10 @@
         <v>493</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>5817</v>
@@ -6921,13 +6918,13 @@
         <v>6130317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>495</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6939,13 @@
         <v>271425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>253</v>
@@ -6957,13 +6954,13 @@
         <v>270913</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -6972,13 +6969,13 @@
         <v>542339</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6990,13 @@
         <v>95148</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>358</v>
+        <v>505</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="H30" s="7">
         <v>101</v>
@@ -7008,13 +7005,13 @@
         <v>107850</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -7023,13 +7020,13 @@
         <v>202997</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>509</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,7 +7082,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7107,7 +7104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEE186-5893-442D-9013-5EB07550E0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F9B05-2211-45C8-B5F1-685595AC5E99}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7124,7 +7121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7231,13 +7228,13 @@
         <v>356485</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
@@ -7246,13 +7243,13 @@
         <v>330782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>354</v>
@@ -7261,13 +7258,13 @@
         <v>687266</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>517</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7279,13 @@
         <v>15600</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7297,13 +7294,13 @@
         <v>14599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>419</v>
+        <v>523</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7312,13 +7309,13 @@
         <v>30200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7330,13 @@
         <v>5594</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>522</v>
+        <v>247</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>482</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7348,13 +7345,13 @@
         <v>7814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -7363,13 +7360,13 @@
         <v>13408</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7434,13 @@
         <v>405995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -7452,13 +7449,13 @@
         <v>478788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M8" s="7">
         <v>726</v>
@@ -7467,13 +7464,13 @@
         <v>884784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7485,13 @@
         <v>14306</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>539</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -7503,13 +7500,13 @@
         <v>20427</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -7518,13 +7515,13 @@
         <v>34733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>320</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,10 +7539,10 @@
         <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7554,13 +7551,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7569,13 +7566,13 @@
         <v>8095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7640,13 @@
         <v>526251</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H12" s="7">
         <v>798</v>
@@ -7658,13 +7655,13 @@
         <v>573922</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M12" s="7">
         <v>1313</v>
@@ -7673,13 +7670,13 @@
         <v>1100173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>535</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7691,13 @@
         <v>21251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7709,13 +7706,13 @@
         <v>23821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>562</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -7724,13 +7721,13 @@
         <v>45072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>562</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>563</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7742,13 @@
         <v>8381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>565</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -7760,13 +7757,13 @@
         <v>7859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -7775,13 +7772,13 @@
         <v>16240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7834,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7849,13 +7846,13 @@
         <v>684840</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>1080</v>
@@ -7864,13 +7861,13 @@
         <v>705253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M16" s="7">
         <v>1704</v>
@@ -7879,13 +7876,13 @@
         <v>1390093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7897,13 @@
         <v>27818</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>578</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7915,13 +7912,13 @@
         <v>30611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7930,13 +7927,13 @@
         <v>58429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>578</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>579</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7948,13 @@
         <v>10296</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>583</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -7966,13 +7963,13 @@
         <v>9346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -7981,13 +7978,13 @@
         <v>19643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>582</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,7 +8040,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8055,13 +8052,13 @@
         <v>566384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
@@ -8070,13 +8067,13 @@
         <v>568000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -8085,13 +8082,13 @@
         <v>1134384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8103,13 @@
         <v>21008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>267</v>
+        <v>596</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>593</v>
+        <v>505</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -8121,13 +8118,13 @@
         <v>17227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>595</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -8136,13 +8133,13 @@
         <v>38235</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>598</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>599</v>
+        <v>219</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>575</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8154,13 @@
         <v>9163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>601</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8172,13 +8169,13 @@
         <v>8293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>568</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>602</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -8187,13 +8184,13 @@
         <v>17456</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,7 +8246,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8258,7 +8255,7 @@
         <v>985</v>
       </c>
       <c r="D24" s="7">
-        <v>667426</v>
+        <v>667425</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>604</v>
@@ -8267,7 +8264,7 @@
         <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>1628</v>
@@ -8276,13 +8273,13 @@
         <v>983011</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M24" s="7">
         <v>2613</v>
@@ -8291,13 +8288,13 @@
         <v>1650437</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8309,13 @@
         <v>23801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>612</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>614</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -8327,13 +8324,13 @@
         <v>30833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>613</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>615</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>614</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -8342,13 +8339,13 @@
         <v>54634</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,13 +8375,13 @@
         <v>8533</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8393,13 +8390,13 @@
         <v>15062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8408,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8467,13 +8464,13 @@
         <v>3207380</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>5096</v>
@@ -8482,13 +8479,13 @@
         <v>3639756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
         <v>8295</v>
@@ -8497,13 +8494,13 @@
         <v>6847135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8518,13 +8515,13 @@
         <v>123784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -8533,13 +8530,13 @@
         <v>137518</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -8548,13 +8545,13 @@
         <v>261302</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,13 +8566,13 @@
         <v>48058</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>615</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -8584,13 +8581,13 @@
         <v>41846</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>642</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -8599,13 +8596,13 @@
         <v>89904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>243</v>
+        <v>641</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>423</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,7 +8658,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE56FFCB-10FB-49B5-B66C-21226F427422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{674FB9A4-DB9B-4C68-BBFA-F9BE7F05BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{219306A1-95B5-4005-994A-AB024C0B5E9A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99ABC836-D1C2-40F0-BC7A-184857E98304}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="726">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>91,58%</t>
@@ -248,7 +248,7 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>86,27%</t>
@@ -329,7 +329,7 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>90,6%</t>
@@ -407,7 +407,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>86,21%</t>
@@ -488,1483 +488,1735 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2628,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6630A4-D627-459D-B7E2-E506248F7C80}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7BC79-8E79-4FAF-92AC-C75564A41745}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3524,10 +3776,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>472</v>
+        <v>274</v>
       </c>
       <c r="D24" s="7">
-        <v>454416</v>
+        <v>264800</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>150</v>
@@ -3539,10 +3791,10 @@
         <v>152</v>
       </c>
       <c r="H24" s="7">
-        <v>591</v>
+        <v>333</v>
       </c>
       <c r="I24" s="7">
-        <v>602849</v>
+        <v>307392</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>153</v>
@@ -3554,10 +3806,10 @@
         <v>155</v>
       </c>
       <c r="M24" s="7">
-        <v>1063</v>
+        <v>607</v>
       </c>
       <c r="N24" s="7">
-        <v>1057266</v>
+        <v>572192</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>156</v>
@@ -3575,10 +3827,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>36723</v>
+        <v>20807</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>159</v>
@@ -3590,34 +3842,34 @@
         <v>161</v>
       </c>
       <c r="H25" s="7">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>59587</v>
+        <v>28271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>96310</v>
+        <v>49078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +3878,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>7843</v>
+        <v>6976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>8053</v>
+        <v>4481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N26" s="7">
-        <v>15897</v>
+        <v>11456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>519</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>498983</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3692,10 +3944,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>368</v>
       </c>
       <c r="I27" s="7">
-        <v>670489</v>
+        <v>340143</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3707,10 +3959,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1174</v>
+        <v>671</v>
       </c>
       <c r="N27" s="7">
-        <v>1169472</v>
+        <v>632726</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3724,55 +3976,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2840</v>
+        <v>198</v>
       </c>
       <c r="D28" s="7">
-        <v>2896029</v>
+        <v>189616</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
-        <v>2926</v>
+        <v>258</v>
       </c>
       <c r="I28" s="7">
-        <v>2986630</v>
+        <v>295457</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
-        <v>5766</v>
+        <v>456</v>
       </c>
       <c r="N28" s="7">
-        <v>5882660</v>
+        <v>485074</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,49 +4033,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>289752</v>
+        <v>15916</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7">
-        <v>286995</v>
+        <v>31316</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
-        <v>553</v>
+        <v>43</v>
       </c>
       <c r="N29" s="7">
-        <v>576747</v>
+        <v>47232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,49 +4084,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>58268</v>
+        <v>868</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>72642</v>
+        <v>3572</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>130909</v>
+        <v>4440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,63 +4135,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>216</v>
+      </c>
+      <c r="D31" s="7">
+        <v>206400</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>287</v>
+      </c>
+      <c r="I31" s="7">
+        <v>330346</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>503</v>
+      </c>
+      <c r="N31" s="7">
+        <v>536746</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2840</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2896029</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2926</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2986630</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5766</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5882660</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>284</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289752</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="7">
+        <v>269</v>
+      </c>
+      <c r="I33" s="7">
+        <v>286995</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="7">
+        <v>553</v>
+      </c>
+      <c r="N33" s="7">
+        <v>576747</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7">
+        <v>58268</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="7">
+        <v>71</v>
+      </c>
+      <c r="I34" s="7">
+        <v>72642</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="7">
+        <v>128</v>
+      </c>
+      <c r="N34" s="7">
+        <v>130909</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3181</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3244049</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3266</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3346267</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6447</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6590316</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>198</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3952,8 +4411,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE75949-A00D-435F-85F7-A61670612524}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52B1484-C2DB-4A1E-9810-9F1B83ED2991}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3969,7 +4428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4076,13 +4535,13 @@
         <v>406703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>392</v>
@@ -4091,28 +4550,28 @@
         <v>400742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>791</v>
       </c>
       <c r="N4" s="7">
-        <v>807446</v>
+        <v>807445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4586,13 @@
         <v>34007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4142,13 +4601,13 @@
         <v>18535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -4157,13 +4616,13 @@
         <v>52542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4637,13 @@
         <v>4862</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4193,13 +4652,13 @@
         <v>7026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4211,10 +4670,10 @@
         <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4715,7 @@
         <v>856</v>
       </c>
       <c r="N7" s="7">
-        <v>871876</v>
+        <v>871875</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4279,16 +4738,16 @@
         <v>611</v>
       </c>
       <c r="D8" s="7">
-        <v>626504</v>
+        <v>626505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>513</v>
@@ -4297,13 +4756,13 @@
         <v>550097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -4312,13 +4771,13 @@
         <v>1176601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4792,13 @@
         <v>40250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -4351,10 +4810,10 @@
         <v>134</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -4363,10 +4822,10 @@
         <v>84981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>82</v>
@@ -4384,13 +4843,13 @@
         <v>16553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4399,13 +4858,13 @@
         <v>11575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4414,13 +4873,13 @@
         <v>28127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4891,7 @@
         <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>683306</v>
+        <v>683307</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4488,13 +4947,13 @@
         <v>600727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>599</v>
@@ -4503,13 +4962,13 @@
         <v>638440</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M12" s="7">
         <v>1175</v>
@@ -4518,10 +4977,10 @@
         <v>1239167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>50</v>
@@ -4539,13 +4998,13 @@
         <v>55769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -4554,13 +5013,13 @@
         <v>49214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -4569,13 +5028,13 @@
         <v>104982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +5049,13 @@
         <v>18612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4605,13 +5064,13 @@
         <v>13779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4620,13 +5079,13 @@
         <v>32391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +5153,13 @@
         <v>549918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>480</v>
@@ -4709,13 +5168,13 @@
         <v>550266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>973</v>
@@ -4724,13 +5183,13 @@
         <v>1100184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +5204,13 @@
         <v>47449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4760,13 +5219,13 @@
         <v>47739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4775,13 +5234,13 @@
         <v>95187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +5255,13 @@
         <v>16226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -4811,13 +5270,13 @@
         <v>9928</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4826,13 +5285,13 @@
         <v>26154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +5359,13 @@
         <v>402074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -4915,13 +5374,13 @@
         <v>400686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -4930,13 +5389,13 @@
         <v>802760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +5410,13 @@
         <v>22030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4966,13 +5425,13 @@
         <v>32824</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -4981,13 +5440,13 @@
         <v>54854</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5461,13 @@
         <v>5325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5017,13 +5476,13 @@
         <v>10109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -5032,13 +5491,13 @@
         <v>15435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,49 +5559,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>466</v>
+        <v>258</v>
       </c>
       <c r="D24" s="7">
-        <v>514774</v>
+        <v>281004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="H24" s="7">
-        <v>635</v>
+        <v>314</v>
       </c>
       <c r="I24" s="7">
-        <v>679602</v>
+        <v>324035</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="M24" s="7">
-        <v>1101</v>
+        <v>572</v>
       </c>
       <c r="N24" s="7">
-        <v>1194376</v>
+        <v>605039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,49 +5610,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>29390</v>
+        <v>18592</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I25" s="7">
-        <v>49653</v>
+        <v>20566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="M25" s="7">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>79043</v>
+        <v>39158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +5661,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>8245</v>
+        <v>5095</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>8469</v>
+        <v>6486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>16714</v>
+        <v>11581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="D27" s="7">
-        <v>552409</v>
+        <v>304691</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5268,10 +5727,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>689</v>
+        <v>341</v>
       </c>
       <c r="I27" s="7">
-        <v>737724</v>
+        <v>351086</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5283,10 +5742,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1188</v>
+        <v>620</v>
       </c>
       <c r="N27" s="7">
-        <v>1290133</v>
+        <v>655777</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5300,55 +5759,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2913</v>
+        <v>208</v>
       </c>
       <c r="D28" s="7">
-        <v>3100699</v>
+        <v>233770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7">
-        <v>2982</v>
+        <v>321</v>
       </c>
       <c r="I28" s="7">
-        <v>3219833</v>
+        <v>355567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="M28" s="7">
-        <v>5895</v>
+        <v>529</v>
       </c>
       <c r="N28" s="7">
-        <v>6320533</v>
+        <v>589337</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +5816,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>228895</v>
+        <v>10798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>380</v>
       </c>
       <c r="H29" s="7">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="I29" s="7">
-        <v>242696</v>
+        <v>29087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="M29" s="7">
-        <v>438</v>
+        <v>34</v>
       </c>
       <c r="N29" s="7">
-        <v>471591</v>
+        <v>39886</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,49 +5867,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>69822</v>
+        <v>3149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>388</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="H30" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>60887</v>
+        <v>1984</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M30" s="7">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>130710</v>
+        <v>5133</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,63 +5918,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>247718</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386638</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>568</v>
+      </c>
+      <c r="N31" s="7">
+        <v>634356</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2913</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3100700</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2982</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3219833</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5895</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6320533</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>211</v>
+      </c>
+      <c r="D33" s="7">
+        <v>228895</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="7">
+        <v>227</v>
+      </c>
+      <c r="I33" s="7">
+        <v>242696</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M33" s="7">
+        <v>438</v>
+      </c>
+      <c r="N33" s="7">
+        <v>471591</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>63</v>
+      </c>
+      <c r="D34" s="7">
+        <v>69822</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H34" s="7">
+        <v>57</v>
+      </c>
+      <c r="I34" s="7">
+        <v>60887</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M34" s="7">
+        <v>120</v>
+      </c>
+      <c r="N34" s="7">
+        <v>130710</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3187</v>
       </c>
-      <c r="D31" s="7">
-        <v>3399416</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3399417</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3266</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3523416</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6453</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6922833</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>198</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5528,8 +6194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8E4FC3-EDFA-4FC5-B3DC-3144A7999D6F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B8C6E5-B182-41C2-93E4-E4982D07625A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5545,7 +6211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5652,13 +6318,13 @@
         <v>377193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>355</v>
@@ -5667,13 +6333,13 @@
         <v>346347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>711</v>
@@ -5682,13 +6348,13 @@
         <v>723540</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,10 +6372,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -5718,13 +6384,13 @@
         <v>36556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -5733,13 +6399,13 @@
         <v>69745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +6420,13 @@
         <v>6317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5769,13 +6435,13 @@
         <v>9888</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5784,13 +6450,13 @@
         <v>16205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +6524,13 @@
         <v>511620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="H8" s="7">
         <v>512</v>
@@ -5873,13 +6539,13 @@
         <v>498385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>1005</v>
@@ -5891,10 +6557,10 @@
         <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +6575,13 @@
         <v>54035</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5924,13 +6590,13 @@
         <v>41905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -5939,13 +6605,13 @@
         <v>95941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,10 +6629,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5975,13 +6641,13 @@
         <v>21319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5990,13 +6656,13 @@
         <v>40143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6730,13 @@
         <v>603621</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -6079,13 +6745,13 @@
         <v>592750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>156</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>1173</v>
@@ -6094,13 +6760,13 @@
         <v>1196371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6781,13 @@
         <v>50452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6133,10 +6799,10 @@
         <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6145,10 +6811,10 @@
         <v>96394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>53</v>
@@ -6166,13 +6832,13 @@
         <v>11092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6181,13 +6847,13 @@
         <v>16803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6199,10 +6865,10 @@
         <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6936,13 @@
         <v>558793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>532</v>
@@ -6285,13 +6951,13 @@
         <v>573781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>1038</v>
@@ -6300,13 +6966,13 @@
         <v>1132574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6987,13 @@
         <v>54986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -6336,13 +7002,13 @@
         <v>47193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -6351,13 +7017,13 @@
         <v>102179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,10 +7041,10 @@
         <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6387,13 +7053,13 @@
         <v>19967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -6402,13 +7068,13 @@
         <v>41903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7116,7 @@
         <v>1169</v>
       </c>
       <c r="N19" s="7">
-        <v>1276656</v>
+        <v>1276655</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6482,7 +7148,7 @@
         <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -6491,10 +7157,10 @@
         <v>428789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>103</v>
@@ -6509,10 +7175,10 @@
         <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +7193,13 @@
         <v>36723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -6542,13 +7208,13 @@
         <v>46362</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -6557,13 +7223,13 @@
         <v>83086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +7244,13 @@
         <v>17912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6593,13 +7259,13 @@
         <v>20529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6608,13 +7274,13 @@
         <v>38441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,49 +7342,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>560</v>
+        <v>289</v>
       </c>
       <c r="D24" s="7">
-        <v>526716</v>
+        <v>296419</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>470</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="I24" s="7">
-        <v>692278</v>
+        <v>332049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="M24" s="7">
-        <v>1143</v>
+        <v>601</v>
       </c>
       <c r="N24" s="7">
-        <v>1218994</v>
+        <v>628468</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,49 +7393,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>42040</v>
+        <v>23011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>52955</v>
+        <v>27402</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>94996</v>
+        <v>50413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,49 +7444,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>19067</v>
+        <v>12980</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>19344</v>
+        <v>11487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>38410</v>
+        <v>24467</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,10 +7495,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>623</v>
+        <v>323</v>
       </c>
       <c r="D27" s="7">
-        <v>587823</v>
+        <v>332410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6844,10 +7510,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>644</v>
+        <v>348</v>
       </c>
       <c r="I27" s="7">
-        <v>764577</v>
+        <v>370937</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6859,10 +7525,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1267</v>
+        <v>671</v>
       </c>
       <c r="N27" s="7">
-        <v>1352400</v>
+        <v>703347</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6876,55 +7542,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2863</v>
+        <v>271</v>
       </c>
       <c r="D28" s="7">
-        <v>2997987</v>
+        <v>230297</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="H28" s="7">
-        <v>2954</v>
+        <v>271</v>
       </c>
       <c r="I28" s="7">
-        <v>3132330</v>
+        <v>360229</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>493</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="M28" s="7">
-        <v>5817</v>
+        <v>542</v>
       </c>
       <c r="N28" s="7">
-        <v>6130317</v>
+        <v>590526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>550</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,49 +7599,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>271425</v>
+        <v>19029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>498</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>553</v>
       </c>
       <c r="H29" s="7">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="I29" s="7">
-        <v>270913</v>
+        <v>25554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
-        <v>506</v>
+        <v>41</v>
       </c>
       <c r="N29" s="7">
-        <v>542339</v>
+        <v>44583</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,49 +7650,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>95148</v>
+        <v>6087</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>504</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>245</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>107850</v>
+        <v>7857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>507</v>
+        <v>247</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="M30" s="7">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>202997</v>
+        <v>13944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>268</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,63 +7701,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>300</v>
+      </c>
+      <c r="D31" s="7">
+        <v>255413</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>296</v>
+      </c>
+      <c r="I31" s="7">
+        <v>393640</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>596</v>
+      </c>
+      <c r="N31" s="7">
+        <v>649053</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2863</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2997987</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2954</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3132330</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5817</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6130317</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>253</v>
+      </c>
+      <c r="D33" s="7">
+        <v>271425</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="7">
+        <v>253</v>
+      </c>
+      <c r="I33" s="7">
+        <v>270913</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M33" s="7">
+        <v>506</v>
+      </c>
+      <c r="N33" s="7">
+        <v>542339</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7">
+        <v>95148</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" s="7">
+        <v>101</v>
+      </c>
+      <c r="I34" s="7">
+        <v>107850</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M34" s="7">
+        <v>189</v>
+      </c>
+      <c r="N34" s="7">
+        <v>202997</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3204</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3364560</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3308</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3511093</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6512</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6875653</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>198</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7104,8 +7977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F9B05-2211-45C8-B5F1-685595AC5E99}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC7A16D-6E63-4130-BFE5-0E209D3CB757}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7121,7 +7994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7225,46 +8098,46 @@
         <v>162</v>
       </c>
       <c r="D4" s="7">
-        <v>356485</v>
+        <v>378157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>330782</v>
+        <v>291860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>515</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="M4" s="7">
         <v>354</v>
       </c>
       <c r="N4" s="7">
-        <v>687266</v>
+        <v>670017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,46 +8149,46 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>15600</v>
+        <v>15643</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>14599</v>
+        <v>12584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>520</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>30200</v>
+        <v>28227</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,46 +8200,46 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>5594</v>
+        <v>6186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>525</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>7814</v>
+        <v>7327</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>526</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>600</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>601</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>13408</v>
+        <v>13513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>528</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,7 +8251,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7393,7 +8266,7 @@
         <v>204</v>
       </c>
       <c r="I7" s="7">
-        <v>353196</v>
+        <v>311770</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7408,7 +8281,7 @@
         <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>730874</v>
+        <v>711757</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7431,46 +8304,46 @@
         <v>284</v>
       </c>
       <c r="D8" s="7">
-        <v>405995</v>
+        <v>401249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>530</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
       </c>
       <c r="I8" s="7">
-        <v>478788</v>
+        <v>493707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="M8" s="7">
         <v>726</v>
       </c>
       <c r="N8" s="7">
-        <v>884784</v>
+        <v>894956</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>537</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,46 +8355,46 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>14306</v>
+        <v>14003</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>539</v>
+        <v>323</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>521</v>
+        <v>611</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>20427</v>
+        <v>18386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>543</v>
+        <v>421</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>34733</v>
+        <v>32389</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>544</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,16 +8406,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8095</v>
+        <v>8295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7551,28 +8424,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>525</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>549</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>8095</v>
+        <v>8295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,7 +8457,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7599,7 +8472,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7614,7 +8487,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7637,46 +8510,46 @@
         <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>526251</v>
+        <v>506788</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>553</v>
+        <v>349</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="H12" s="7">
         <v>798</v>
       </c>
       <c r="I12" s="7">
-        <v>573922</v>
+        <v>558454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>530</v>
+        <v>623</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="M12" s="7">
         <v>1313</v>
       </c>
       <c r="N12" s="7">
-        <v>1100173</v>
+        <v>1065243</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>557</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>152</v>
+        <v>626</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,46 +8561,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>21251</v>
+        <v>19797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>23821</v>
+        <v>21755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>563</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>45072</v>
+        <v>41553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>629</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,46 +8612,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>8381</v>
+        <v>8404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>565</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>7859</v>
+        <v>7326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>630</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>632</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
       </c>
       <c r="N14" s="7">
-        <v>16240</v>
+        <v>15730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,7 +8663,7 @@
         <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>555883</v>
+        <v>534990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7805,7 +8678,7 @@
         <v>842</v>
       </c>
       <c r="I15" s="7">
-        <v>605602</v>
+        <v>587535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7820,7 +8693,7 @@
         <v>1385</v>
       </c>
       <c r="N15" s="7">
-        <v>1161485</v>
+        <v>1122525</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7843,46 +8716,46 @@
         <v>624</v>
       </c>
       <c r="D16" s="7">
-        <v>684840</v>
+        <v>850647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>571</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="H16" s="7">
         <v>1080</v>
       </c>
       <c r="I16" s="7">
-        <v>705253</v>
+        <v>674163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>638</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="M16" s="7">
         <v>1704</v>
       </c>
       <c r="N16" s="7">
-        <v>1390093</v>
+        <v>1524810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,46 +8767,46 @@
         <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>27818</v>
+        <v>26227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>490</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>643</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>578</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>30611</v>
+        <v>28120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>58429</v>
+        <v>54347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>581</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>647</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,46 +8818,46 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>10296</v>
+        <v>9908</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>393</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>9346</v>
+        <v>8785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>585</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>651</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>19643</v>
+        <v>18694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,7 +8869,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722954</v>
+        <v>886782</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8011,7 +8884,7 @@
         <v>1138</v>
       </c>
       <c r="I19" s="7">
-        <v>745210</v>
+        <v>711068</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8026,7 +8899,7 @@
         <v>1802</v>
       </c>
       <c r="N19" s="7">
-        <v>1468164</v>
+        <v>1597850</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8049,46 +8922,46 @@
         <v>629</v>
       </c>
       <c r="D20" s="7">
-        <v>566384</v>
+        <v>529827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
       </c>
       <c r="I20" s="7">
-        <v>568000</v>
+        <v>521387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
       </c>
       <c r="N20" s="7">
-        <v>1134384</v>
+        <v>1051214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,46 +8973,46 @@
         <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>21008</v>
+        <v>19347</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>505</v>
+        <v>665</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>17227</v>
+        <v>15645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>121</v>
+        <v>667</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
       </c>
       <c r="N21" s="7">
-        <v>38235</v>
+        <v>34992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>219</v>
+        <v>670</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +9024,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>9163</v>
+        <v>8727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>673</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>8293</v>
+        <v>7687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>568</v>
+        <v>674</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>17456</v>
+        <v>16414</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>38</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +9075,7 @@
         <v>660</v>
       </c>
       <c r="D23" s="7">
-        <v>596556</v>
+        <v>557901</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8217,7 +9090,7 @@
         <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>593520</v>
+        <v>544719</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8232,7 +9105,7 @@
         <v>1657</v>
       </c>
       <c r="N23" s="7">
-        <v>1190076</v>
+        <v>1102620</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8252,49 +9125,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>985</v>
+        <v>547</v>
       </c>
       <c r="D24" s="7">
-        <v>667425</v>
+        <v>353076</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>538</v>
+        <v>678</v>
       </c>
       <c r="H24" s="7">
-        <v>1628</v>
+        <v>778</v>
       </c>
       <c r="I24" s="7">
-        <v>983011</v>
+        <v>585735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M24" s="7">
-        <v>2613</v>
+        <v>1325</v>
       </c>
       <c r="N24" s="7">
-        <v>1650437</v>
+        <v>938811</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,49 +9176,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>23801</v>
+        <v>11177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>684</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>612</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>685</v>
       </c>
       <c r="H25" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>30833</v>
+        <v>16635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>687</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="M25" s="7">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>54634</v>
+        <v>27812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>689</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>615</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,49 +9227,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>6529</v>
+        <v>3913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4821</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M26" s="7">
         <v>16</v>
       </c>
-      <c r="I26" s="7">
-        <v>8533</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="M26" s="7">
-        <v>25</v>
-      </c>
       <c r="N26" s="7">
-        <v>15062</v>
+        <v>8734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>621</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,10 +9278,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8420,10 +9293,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1702</v>
+        <v>825</v>
       </c>
       <c r="I27" s="7">
-        <v>1022377</v>
+        <v>607192</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8435,10 +9308,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2730</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1720132</v>
+        <v>975357</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8452,55 +9325,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3199</v>
+        <v>438</v>
       </c>
       <c r="D28" s="7">
-        <v>3207380</v>
+        <v>269600</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="H28" s="7">
-        <v>5096</v>
+        <v>850</v>
       </c>
       <c r="I28" s="7">
-        <v>3639756</v>
+        <v>409236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="M28" s="7">
-        <v>8295</v>
+        <v>1288</v>
       </c>
       <c r="N28" s="7">
-        <v>6847135</v>
+        <v>678836</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>379</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,49 +9382,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>123784</v>
+        <v>10950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="H29" s="7">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7">
-        <v>137518</v>
+        <v>11114</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="M29" s="7">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="N29" s="7">
-        <v>261302</v>
+        <v>22064</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>637</v>
+        <v>496</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,49 +9433,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>48058</v>
+        <v>2209</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>582</v>
+        <v>709</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>639</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>381</v>
+        <v>66</v>
       </c>
       <c r="H30" s="7">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>41846</v>
+        <v>3032</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>640</v>
+        <v>249</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>710</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="M30" s="7">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>89904</v>
+        <v>5241</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>641</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>600</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,63 +9484,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>877</v>
+      </c>
+      <c r="I31" s="7">
+        <v>423382</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706141</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3199</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3289346</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5096</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3534542</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8295</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6823887</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>126</v>
+      </c>
+      <c r="D33" s="7">
+        <v>117144</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="H33" s="7">
+        <v>192</v>
+      </c>
+      <c r="I33" s="7">
+        <v>124239</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="M33" s="7">
+        <v>318</v>
+      </c>
+      <c r="N33" s="7">
+        <v>241383</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>44</v>
+      </c>
+      <c r="D34" s="7">
+        <v>47642</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7">
+        <v>56</v>
+      </c>
+      <c r="I34" s="7">
+        <v>38978</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="M34" s="7">
+        <v>100</v>
+      </c>
+      <c r="N34" s="7">
+        <v>86620</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3369</v>
       </c>
-      <c r="D31" s="7">
-        <v>3379222</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3454132</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5344</v>
       </c>
-      <c r="I31" s="7">
-        <v>3819120</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3697759</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8713</v>
       </c>
-      <c r="N31" s="7">
-        <v>7198341</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>198</v>
+      <c r="N35" s="7">
+        <v>7151890</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
